--- a/Hertz200/Documents/BOM.xlsx
+++ b/Hertz200/Documents/BOM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7815"/>
+    <workbookView windowWidth="19815" windowHeight="7815"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="148">
   <si>
     <t>QUANTITY</t>
   </si>
@@ -97,12 +97,6 @@
     <t>14-TSSOP</t>
   </si>
   <si>
-    <t>HTS221</t>
-  </si>
-  <si>
-    <t>TEMPERATURE AND HUMIDITY SENSOR</t>
-  </si>
-  <si>
     <t>TL3305AF160QG</t>
   </si>
   <si>
@@ -452,6 +446,18 @@
   </si>
   <si>
     <t>USB Connector  Type B</t>
+  </si>
+  <si>
+    <t>TMP108AIYFFT</t>
+  </si>
+  <si>
+    <t>TEMPERATURE SENSOR</t>
+  </si>
+  <si>
+    <t>DSBGA-6</t>
+  </si>
+  <si>
+    <t>5K</t>
   </si>
 </sst>
 </file>
@@ -460,9 +466,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -490,59 +496,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -551,6 +512,21 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -565,7 +541,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -576,6 +559,21 @@
       <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -610,8 +608,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -634,19 +640,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -658,31 +790,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -700,121 +808,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -825,30 +831,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -872,6 +854,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -925,10 +916,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -949,127 +955,127 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1398,10 +1404,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J55"/>
+  <dimension ref="A1:J57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B17" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1557,26 +1563,6 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" t="s">
-        <v>13</v>
-      </c>
-    </row>
     <row r="8" spans="1:8">
       <c r="A8">
         <v>7</v>
@@ -1588,10 +1574,10 @@
         <v>20</v>
       </c>
       <c r="E8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H8" t="s">
         <v>13</v>
@@ -1605,16 +1591,16 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" t="s">
         <v>31</v>
       </c>
-      <c r="E9" t="s">
+      <c r="G9" t="s">
         <v>32</v>
-      </c>
-      <c r="F9" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" t="s">
-        <v>34</v>
       </c>
       <c r="H9" t="s">
         <v>13</v>
@@ -1628,16 +1614,16 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" t="s">
         <v>35</v>
       </c>
-      <c r="E10" t="s">
+      <c r="G10" t="s">
         <v>36</v>
-      </c>
-      <c r="F10" t="s">
-        <v>37</v>
-      </c>
-      <c r="G10" t="s">
-        <v>38</v>
       </c>
       <c r="H10" t="s">
         <v>13</v>
@@ -1651,13 +1637,13 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" t="s">
         <v>39</v>
-      </c>
-      <c r="E11" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" t="s">
-        <v>41</v>
       </c>
       <c r="H11" t="s">
         <v>13</v>
@@ -1671,16 +1657,16 @@
         <v>2</v>
       </c>
       <c r="D12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" t="s">
         <v>42</v>
       </c>
-      <c r="E12" t="s">
+      <c r="H12" t="s">
         <v>43</v>
-      </c>
-      <c r="F12" t="s">
-        <v>44</v>
-      </c>
-      <c r="H12" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1691,16 +1677,16 @@
         <v>1</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" t="s">
         <v>46</v>
       </c>
-      <c r="E13" t="s">
-        <v>47</v>
-      </c>
-      <c r="F13" t="s">
-        <v>48</v>
-      </c>
       <c r="H13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1714,13 +1700,13 @@
         <v>20</v>
       </c>
       <c r="E14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14" t="s">
         <v>49</v>
-      </c>
-      <c r="F14" t="s">
-        <v>50</v>
-      </c>
-      <c r="G14" t="s">
-        <v>51</v>
       </c>
       <c r="H14" t="s">
         <v>13</v>
@@ -1734,13 +1720,13 @@
         <v>2</v>
       </c>
       <c r="D15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" t="s">
         <v>52</v>
-      </c>
-      <c r="E15" t="s">
-        <v>53</v>
-      </c>
-      <c r="F15" t="s">
-        <v>54</v>
       </c>
       <c r="H15" t="s">
         <v>13</v>
@@ -1751,7 +1737,7 @@
         <v>15</v>
       </c>
       <c r="F16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1762,22 +1748,22 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" t="s">
+        <v>54</v>
+      </c>
+      <c r="F17" t="s">
         <v>55</v>
       </c>
-      <c r="E17" t="s">
+      <c r="G17" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F17" t="s">
+      <c r="H17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I17" t="s">
         <v>57</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="H17" t="s">
-        <v>13</v>
-      </c>
-      <c r="I17" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1788,22 +1774,22 @@
         <v>1</v>
       </c>
       <c r="D18" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" t="s">
         <v>55</v>
       </c>
-      <c r="E18" t="s">
-        <v>60</v>
-      </c>
-      <c r="F18" t="s">
-        <v>57</v>
-      </c>
       <c r="G18" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H18" t="s">
         <v>13</v>
       </c>
       <c r="I18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1814,16 +1800,16 @@
         <v>4</v>
       </c>
       <c r="D19" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19" t="s">
         <v>62</v>
       </c>
-      <c r="E19" t="s">
+      <c r="G19" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="F19" t="s">
-        <v>64</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="H19" t="s">
         <v>13</v>
@@ -1837,22 +1823,22 @@
         <v>3</v>
       </c>
       <c r="D20" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F20" t="s">
         <v>66</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="G20" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H20" t="s">
+        <v>13</v>
+      </c>
+      <c r="I20" t="s">
         <v>67</v>
-      </c>
-      <c r="F20" t="s">
-        <v>68</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="H20" t="s">
-        <v>13</v>
-      </c>
-      <c r="I20" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1863,22 +1849,22 @@
         <v>1</v>
       </c>
       <c r="D21" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" t="s">
+        <v>68</v>
+      </c>
+      <c r="F21" t="s">
         <v>66</v>
       </c>
-      <c r="E21" t="s">
-        <v>70</v>
-      </c>
-      <c r="F21" t="s">
-        <v>68</v>
-      </c>
       <c r="G21" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H21" t="s">
         <v>13</v>
       </c>
       <c r="I21" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1889,22 +1875,22 @@
         <v>4</v>
       </c>
       <c r="D22" t="s">
+        <v>70</v>
+      </c>
+      <c r="E22" t="s">
+        <v>71</v>
+      </c>
+      <c r="F22" t="s">
+        <v>66</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I22" t="s">
         <v>72</v>
-      </c>
-      <c r="E22" t="s">
-        <v>73</v>
-      </c>
-      <c r="F22" t="s">
-        <v>68</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="H22" t="s">
-        <v>13</v>
-      </c>
-      <c r="I22" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1915,22 +1901,22 @@
         <v>2</v>
       </c>
       <c r="D23" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F23" t="s">
         <v>66</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F23" t="s">
-        <v>68</v>
-      </c>
       <c r="G23" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H23" t="s">
         <v>13</v>
       </c>
       <c r="I23" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1941,22 +1927,22 @@
         <v>1</v>
       </c>
       <c r="D24" t="s">
+        <v>74</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F24" t="s">
+        <v>66</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I24" t="s">
         <v>76</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F24" t="s">
-        <v>68</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="H24" t="s">
-        <v>13</v>
-      </c>
-      <c r="I24" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1967,25 +1953,25 @@
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E25" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F25" t="s">
+        <v>66</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H25" t="s">
+        <v>13</v>
+      </c>
+      <c r="I25" t="s">
+        <v>78</v>
+      </c>
+      <c r="J25" t="s">
         <v>79</v>
-      </c>
-      <c r="F25" t="s">
-        <v>68</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="H25" t="s">
-        <v>13</v>
-      </c>
-      <c r="I25" t="s">
-        <v>80</v>
-      </c>
-      <c r="J25" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1996,22 +1982,22 @@
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F26" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H26" t="s">
         <v>13</v>
       </c>
       <c r="I26" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -2022,22 +2008,22 @@
         <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F27" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H27" t="s">
         <v>13</v>
       </c>
       <c r="I27" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -2048,22 +2034,22 @@
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F28" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H28" t="s">
         <v>13</v>
       </c>
       <c r="I28" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -2074,22 +2060,22 @@
         <v>3</v>
       </c>
       <c r="D29" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F29" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H29" t="s">
         <v>13</v>
       </c>
       <c r="I29" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -2100,22 +2086,22 @@
         <v>3</v>
       </c>
       <c r="D30" t="s">
+        <v>64</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F30" t="s">
         <v>66</v>
       </c>
-      <c r="E30" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F30" t="s">
-        <v>68</v>
-      </c>
       <c r="G30" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H30" t="s">
         <v>13</v>
       </c>
       <c r="I30" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -2126,22 +2112,22 @@
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F31" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H31" t="s">
         <v>13</v>
       </c>
       <c r="I31" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -2152,22 +2138,22 @@
         <v>1</v>
       </c>
       <c r="D32" t="s">
+        <v>64</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F32" t="s">
         <v>66</v>
       </c>
-      <c r="E32" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F32" t="s">
-        <v>68</v>
-      </c>
       <c r="G32" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H32" t="s">
         <v>13</v>
       </c>
       <c r="I32" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -2178,22 +2164,22 @@
         <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F33" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H33" t="s">
         <v>13</v>
       </c>
       <c r="I33" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -2204,22 +2190,22 @@
         <v>3</v>
       </c>
       <c r="D34" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F34" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H34" t="s">
         <v>13</v>
       </c>
       <c r="I34" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="35" spans="2:9">
@@ -2227,16 +2213,16 @@
         <v>1</v>
       </c>
       <c r="F35" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H35" t="s">
         <v>13</v>
       </c>
       <c r="I35" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -2247,22 +2233,22 @@
         <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E36" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F36" t="s">
+        <v>100</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H36" t="s">
+        <v>13</v>
+      </c>
+      <c r="I36" t="s">
         <v>101</v>
-      </c>
-      <c r="F36" t="s">
-        <v>102</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="H36" t="s">
-        <v>13</v>
-      </c>
-      <c r="I36" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -2273,22 +2259,22 @@
         <v>2</v>
       </c>
       <c r="D37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F37" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H37" t="s">
         <v>13</v>
       </c>
       <c r="I37" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -2299,22 +2285,22 @@
         <v>3</v>
       </c>
       <c r="D38" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E38" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F38" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H38" t="s">
         <v>13</v>
       </c>
       <c r="I38" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -2325,22 +2311,22 @@
         <v>1</v>
       </c>
       <c r="D39" t="s">
+        <v>105</v>
+      </c>
+      <c r="E39" t="s">
+        <v>106</v>
+      </c>
+      <c r="F39" t="s">
+        <v>100</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H39" t="s">
+        <v>13</v>
+      </c>
+      <c r="I39" t="s">
         <v>107</v>
-      </c>
-      <c r="E39" t="s">
-        <v>108</v>
-      </c>
-      <c r="F39" t="s">
-        <v>102</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="H39" t="s">
-        <v>13</v>
-      </c>
-      <c r="I39" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -2351,22 +2337,22 @@
         <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E40" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F40" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H40" t="s">
         <v>13</v>
       </c>
       <c r="I40" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -2377,22 +2363,22 @@
         <v>3</v>
       </c>
       <c r="D41" t="s">
+        <v>110</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F41" t="s">
+        <v>100</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H41" t="s">
+        <v>13</v>
+      </c>
+      <c r="I41" t="s">
         <v>112</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="F41" t="s">
-        <v>102</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="H41" t="s">
-        <v>13</v>
-      </c>
-      <c r="I41" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -2403,19 +2389,19 @@
         <v>2</v>
       </c>
       <c r="D42" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E42" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F42" t="s">
+        <v>114</v>
+      </c>
+      <c r="H42" t="s">
+        <v>13</v>
+      </c>
+      <c r="I42" t="s">
         <v>115</v>
-      </c>
-      <c r="F42" t="s">
-        <v>116</v>
-      </c>
-      <c r="H42" t="s">
-        <v>13</v>
-      </c>
-      <c r="I42" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -2426,22 +2412,22 @@
         <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E43" t="s">
+        <v>116</v>
+      </c>
+      <c r="F43" t="s">
+        <v>100</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="H43" t="s">
+        <v>13</v>
+      </c>
+      <c r="I43" t="s">
         <v>118</v>
-      </c>
-      <c r="F43" t="s">
-        <v>102</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="H43" t="s">
-        <v>13</v>
-      </c>
-      <c r="I43" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -2452,22 +2438,22 @@
         <v>1</v>
       </c>
       <c r="D44" t="s">
+        <v>110</v>
+      </c>
+      <c r="E44" t="s">
+        <v>119</v>
+      </c>
+      <c r="F44" t="s">
+        <v>100</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="H44" t="s">
+        <v>13</v>
+      </c>
+      <c r="I44" t="s">
         <v>112</v>
-      </c>
-      <c r="E44" t="s">
-        <v>121</v>
-      </c>
-      <c r="F44" t="s">
-        <v>102</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="H44" t="s">
-        <v>13</v>
-      </c>
-      <c r="I44" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -2478,22 +2464,22 @@
         <v>4</v>
       </c>
       <c r="D45" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E45" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F45" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H45" t="s">
         <v>13</v>
       </c>
       <c r="I45" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -2504,22 +2490,22 @@
         <v>4</v>
       </c>
       <c r="D46" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F46" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H46" t="s">
         <v>13</v>
       </c>
       <c r="I46" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -2530,22 +2516,22 @@
         <v>2</v>
       </c>
       <c r="D47" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E47" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F47" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H47" t="s">
         <v>13</v>
       </c>
       <c r="I47" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -2553,25 +2539,25 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D48" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F48" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H48" t="s">
         <v>13</v>
       </c>
       <c r="I48" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2579,7 +2565,7 @@
         <v>48</v>
       </c>
       <c r="F49" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -2590,16 +2576,16 @@
         <v>1</v>
       </c>
       <c r="E50" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F50" t="s">
+        <v>129</v>
+      </c>
+      <c r="H50" t="s">
+        <v>43</v>
+      </c>
+      <c r="J50" s="4" t="s">
         <v>130</v>
-      </c>
-      <c r="F50" t="s">
-        <v>131</v>
-      </c>
-      <c r="H50" t="s">
-        <v>45</v>
-      </c>
-      <c r="J50" s="4" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2610,16 +2596,16 @@
         <v>1</v>
       </c>
       <c r="D51" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F51" t="s">
         <v>133</v>
       </c>
-      <c r="E51" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="F51" t="s">
-        <v>135</v>
-      </c>
       <c r="H51" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2630,16 +2616,16 @@
         <v>1</v>
       </c>
       <c r="D52" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F52" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H52" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2650,16 +2636,16 @@
         <v>1</v>
       </c>
       <c r="D53" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F53" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H53" t="s">
         <v>13</v>
@@ -2670,16 +2656,16 @@
         <v>2</v>
       </c>
       <c r="D54" t="s">
+        <v>138</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F54" t="s">
         <v>140</v>
       </c>
-      <c r="E54" s="2" t="s">
+      <c r="G54" t="s">
         <v>141</v>
-      </c>
-      <c r="F54" t="s">
-        <v>142</v>
-      </c>
-      <c r="G54" t="s">
-        <v>143</v>
       </c>
       <c r="H54" t="s">
         <v>13</v>
@@ -2690,16 +2676,53 @@
         <v>1</v>
       </c>
       <c r="D55" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E55" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F55" t="s">
+        <v>143</v>
+      </c>
+      <c r="H55" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8">
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="D56" t="s">
+        <v>20</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="F55" t="s">
+      <c r="F56" t="s">
         <v>145</v>
       </c>
-      <c r="H55" t="s">
-        <v>13</v>
+      <c r="G56" t="s">
+        <v>146</v>
+      </c>
+      <c r="H56" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9">
+      <c r="B57">
+        <v>2</v>
+      </c>
+      <c r="F57" t="s">
+        <v>66</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H57" t="s">
+        <v>13</v>
+      </c>
+      <c r="I57" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>

--- a/Hertz200/Documents/BOM.xlsx
+++ b/Hertz200/Documents/BOM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7815"/>
+    <workbookView windowWidth="20490" windowHeight="7815"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="155">
   <si>
     <t>QUANTITY</t>
   </si>
@@ -448,16 +448,37 @@
     <t>USB Connector  Type B</t>
   </si>
   <si>
-    <t>TMP108AIYFFT</t>
+    <t>TMP451HQDQWTQ1</t>
   </si>
   <si>
     <t>TEMPERATURE SENSOR</t>
   </si>
   <si>
-    <t>DSBGA-6</t>
-  </si>
-  <si>
-    <t>5K</t>
+    <t>smt</t>
+  </si>
+  <si>
+    <t>200R</t>
+  </si>
+  <si>
+    <t>GCT</t>
+  </si>
+  <si>
+    <t>USB4125-GF-A-0190</t>
+  </si>
+  <si>
+    <t>USB TYPE C</t>
+  </si>
+  <si>
+    <t>5.1K</t>
+  </si>
+  <si>
+    <t>Rectron</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BC847-T </t>
+  </si>
+  <si>
+    <t>SOT23-3</t>
   </si>
 </sst>
 </file>
@@ -465,10 +486,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -496,14 +517,53 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -512,21 +572,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -541,24 +586,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -577,32 +615,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -615,21 +651,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -640,187 +661,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -831,63 +852,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -917,6 +881,63 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -934,15 +955,15 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -955,127 +976,127 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1404,10 +1425,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J57"/>
+  <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView tabSelected="1" topLeftCell="B45" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1872,7 +1893,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D22" t="s">
         <v>70</v>
@@ -2386,7 +2407,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D42" t="s">
         <v>110</v>
@@ -2688,41 +2709,96 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="2:8">
-      <c r="B56">
-        <v>1</v>
-      </c>
-      <c r="D56" t="s">
+    <row r="56" spans="5:5">
+      <c r="E56" s="2"/>
+    </row>
+    <row r="57" spans="2:8">
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="D57" t="s">
         <v>20</v>
       </c>
-      <c r="E56" s="2" t="s">
+      <c r="E57" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="F56" t="s">
+      <c r="F57" t="s">
         <v>145</v>
       </c>
-      <c r="G56" t="s">
+      <c r="G57" s="3"/>
+      <c r="H57" t="s">
         <v>146</v>
       </c>
-      <c r="H56" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9">
-      <c r="B57">
+    </row>
+    <row r="58" spans="2:9">
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="F58" t="s">
+        <v>66</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H58" t="s">
+        <v>13</v>
+      </c>
+      <c r="I58" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8">
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="D59" t="s">
+        <v>148</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F59" t="s">
+        <v>150</v>
+      </c>
+      <c r="H59" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9">
+      <c r="B60">
         <v>2</v>
       </c>
-      <c r="F57" t="s">
+      <c r="F60" t="s">
         <v>66</v>
       </c>
-      <c r="G57" s="3" t="s">
+      <c r="G60" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="H57" t="s">
-        <v>13</v>
-      </c>
-      <c r="I57" t="s">
-        <v>147</v>
+      <c r="H60" t="s">
+        <v>13</v>
+      </c>
+      <c r="I60" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8">
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="D61" t="s">
+        <v>152</v>
+      </c>
+      <c r="E61" t="s">
+        <v>153</v>
+      </c>
+      <c r="F61" t="s">
+        <v>52</v>
+      </c>
+      <c r="G61" t="s">
+        <v>154</v>
+      </c>
+      <c r="H61" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Hertz200/Documents/BOM.xlsx
+++ b/Hertz200/Documents/BOM.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="156">
   <si>
     <t>QUANTITY</t>
   </si>
@@ -175,19 +175,22 @@
     <t>TRANSISTOR</t>
   </si>
   <si>
+    <t xml:space="preserve">Epcos/TDK </t>
+  </si>
+  <si>
+    <t>B82496C3270J</t>
+  </si>
+  <si>
+    <t>INDUCTOR</t>
+  </si>
+  <si>
+    <t>0603</t>
+  </si>
+  <si>
+    <t>27nH</t>
+  </si>
+  <si>
     <t xml:space="preserve">Murata Electronics </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LQG18HN27NJ00D </t>
-  </si>
-  <si>
-    <t>INDUCTOR</t>
-  </si>
-  <si>
-    <t>0603</t>
-  </si>
-  <si>
-    <t>27nH</t>
   </si>
   <si>
     <t>LQM18PN2R2MFHD</t>
@@ -530,27 +533,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -562,8 +548,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -586,21 +573,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -615,6 +587,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -623,8 +603,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -637,6 +633,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -644,9 +648,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -661,6 +664,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -673,19 +706,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -697,25 +778,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -727,121 +844,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -852,17 +855,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -883,9 +875,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -932,8 +926,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -952,151 +946,160 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1427,8 +1430,8 @@
   <sheetPr/>
   <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B45" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+    <sheetView tabSelected="1" topLeftCell="B11" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1795,10 +1798,10 @@
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F18" t="s">
         <v>55</v>
@@ -1810,7 +1813,7 @@
         <v>13</v>
       </c>
       <c r="I18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1821,16 +1824,16 @@
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F19" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H19" t="s">
         <v>13</v>
@@ -1844,13 +1847,13 @@
         <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F20" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>56</v>
@@ -1859,7 +1862,7 @@
         <v>13</v>
       </c>
       <c r="I20" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1870,13 +1873,13 @@
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E21" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F21" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>56</v>
@@ -1885,7 +1888,7 @@
         <v>13</v>
       </c>
       <c r="I21" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1896,13 +1899,13 @@
         <v>6</v>
       </c>
       <c r="D22" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E22" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F22" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>56</v>
@@ -1911,7 +1914,7 @@
         <v>13</v>
       </c>
       <c r="I22" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1922,22 +1925,22 @@
         <v>2</v>
       </c>
       <c r="D23" t="s">
+        <v>65</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F23" t="s">
+        <v>67</v>
+      </c>
+      <c r="G23" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="H23" t="s">
+        <v>13</v>
+      </c>
+      <c r="I23" t="s">
         <v>73</v>
-      </c>
-      <c r="F23" t="s">
-        <v>66</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="H23" t="s">
-        <v>13</v>
-      </c>
-      <c r="I23" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1948,22 +1951,22 @@
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F24" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H24" t="s">
         <v>13</v>
       </c>
       <c r="I24" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1974,25 +1977,25 @@
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F25" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H25" t="s">
         <v>13</v>
       </c>
       <c r="I25" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J25" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -2003,22 +2006,22 @@
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F26" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H26" t="s">
         <v>13</v>
       </c>
       <c r="I26" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -2029,22 +2032,22 @@
         <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F27" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H27" t="s">
         <v>13</v>
       </c>
       <c r="I27" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -2055,13 +2058,13 @@
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F28" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G28" s="3" t="s">
         <v>56</v>
@@ -2070,7 +2073,7 @@
         <v>13</v>
       </c>
       <c r="I28" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -2081,13 +2084,13 @@
         <v>3</v>
       </c>
       <c r="D29" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F29" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>56</v>
@@ -2096,7 +2099,7 @@
         <v>13</v>
       </c>
       <c r="I29" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -2107,13 +2110,13 @@
         <v>3</v>
       </c>
       <c r="D30" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F30" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G30" s="3" t="s">
         <v>56</v>
@@ -2122,7 +2125,7 @@
         <v>13</v>
       </c>
       <c r="I30" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -2133,13 +2136,13 @@
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F31" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G31" s="3" t="s">
         <v>56</v>
@@ -2148,7 +2151,7 @@
         <v>13</v>
       </c>
       <c r="I31" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -2159,13 +2162,13 @@
         <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F32" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>56</v>
@@ -2174,7 +2177,7 @@
         <v>13</v>
       </c>
       <c r="I32" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -2185,22 +2188,22 @@
         <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H33" t="s">
         <v>13</v>
       </c>
       <c r="I33" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -2211,13 +2214,13 @@
         <v>3</v>
       </c>
       <c r="D34" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F34" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G34" s="3" t="s">
         <v>56</v>
@@ -2226,7 +2229,7 @@
         <v>13</v>
       </c>
       <c r="I34" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35" spans="2:9">
@@ -2234,7 +2237,7 @@
         <v>1</v>
       </c>
       <c r="F35" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>56</v>
@@ -2243,7 +2246,7 @@
         <v>13</v>
       </c>
       <c r="I35" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -2254,22 +2257,22 @@
         <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F36" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H36" t="s">
         <v>13</v>
       </c>
       <c r="I36" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -2280,22 +2283,22 @@
         <v>2</v>
       </c>
       <c r="D37" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F37" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H37" t="s">
         <v>13</v>
       </c>
       <c r="I37" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -2306,13 +2309,13 @@
         <v>3</v>
       </c>
       <c r="D38" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E38" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F38" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G38" s="3" t="s">
         <v>56</v>
@@ -2321,7 +2324,7 @@
         <v>13</v>
       </c>
       <c r="I38" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -2332,13 +2335,13 @@
         <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E39" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F39" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G39" s="3" t="s">
         <v>56</v>
@@ -2347,7 +2350,7 @@
         <v>13</v>
       </c>
       <c r="I39" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -2358,13 +2361,13 @@
         <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E40" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F40" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G40" s="3" t="s">
         <v>56</v>
@@ -2373,7 +2376,7 @@
         <v>13</v>
       </c>
       <c r="I40" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -2384,13 +2387,13 @@
         <v>3</v>
       </c>
       <c r="D41" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F41" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>56</v>
@@ -2399,7 +2402,7 @@
         <v>13</v>
       </c>
       <c r="I41" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -2410,19 +2413,19 @@
         <v>1</v>
       </c>
       <c r="D42" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F42" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H42" t="s">
         <v>13</v>
       </c>
       <c r="I42" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -2433,22 +2436,22 @@
         <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E43" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F43" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H43" t="s">
         <v>13</v>
       </c>
       <c r="I43" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -2459,22 +2462,22 @@
         <v>1</v>
       </c>
       <c r="D44" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E44" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F44" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H44" t="s">
         <v>13</v>
       </c>
       <c r="I44" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -2485,13 +2488,13 @@
         <v>4</v>
       </c>
       <c r="D45" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E45" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F45" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>56</v>
@@ -2500,7 +2503,7 @@
         <v>13</v>
       </c>
       <c r="I45" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -2511,13 +2514,13 @@
         <v>4</v>
       </c>
       <c r="D46" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F46" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>56</v>
@@ -2526,7 +2529,7 @@
         <v>13</v>
       </c>
       <c r="I46" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -2537,13 +2540,13 @@
         <v>2</v>
       </c>
       <c r="D47" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E47" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F47" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>56</v>
@@ -2552,7 +2555,7 @@
         <v>13</v>
       </c>
       <c r="I47" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -2563,13 +2566,13 @@
         <v>15</v>
       </c>
       <c r="D48" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F48" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>56</v>
@@ -2578,7 +2581,7 @@
         <v>13</v>
       </c>
       <c r="I48" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2586,7 +2589,7 @@
         <v>48</v>
       </c>
       <c r="F49" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -2597,16 +2600,16 @@
         <v>1</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F50" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H50" t="s">
         <v>43</v>
       </c>
       <c r="J50" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2617,13 +2620,13 @@
         <v>1</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F51" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H51" t="s">
         <v>43</v>
@@ -2640,10 +2643,10 @@
         <v>37</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F52" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H52" t="s">
         <v>43</v>
@@ -2657,16 +2660,16 @@
         <v>1</v>
       </c>
       <c r="D53" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F53" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H53" t="s">
         <v>13</v>
@@ -2677,16 +2680,16 @@
         <v>2</v>
       </c>
       <c r="D54" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F54" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G54" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H54" t="s">
         <v>13</v>
@@ -2700,10 +2703,10 @@
         <v>37</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F55" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H55" t="s">
         <v>13</v>
@@ -2720,14 +2723,14 @@
         <v>20</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F57" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G57" s="3"/>
       <c r="H57" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="58" spans="2:9">
@@ -2735,7 +2738,7 @@
         <v>1</v>
       </c>
       <c r="F58" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>56</v>
@@ -2744,7 +2747,7 @@
         <v>13</v>
       </c>
       <c r="I58" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="59" spans="2:8">
@@ -2752,13 +2755,13 @@
         <v>1</v>
       </c>
       <c r="D59" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F59" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H59" t="s">
         <v>13</v>
@@ -2769,7 +2772,7 @@
         <v>2</v>
       </c>
       <c r="F60" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>56</v>
@@ -2778,7 +2781,7 @@
         <v>13</v>
       </c>
       <c r="I60" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="61" spans="2:8">
@@ -2786,16 +2789,16 @@
         <v>1</v>
       </c>
       <c r="D61" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E61" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F61" t="s">
         <v>52</v>
       </c>
       <c r="G61" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H61" t="s">
         <v>13</v>

--- a/Hertz200/Documents/BOM.xlsx
+++ b/Hertz200/Documents/BOM.xlsx
@@ -489,10 +489,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -520,6 +520,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -528,13 +543,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -556,6 +564,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -572,15 +595,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -595,25 +619,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -627,29 +649,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -664,187 +664,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -884,6 +884,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -904,21 +919,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -958,15 +958,15 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -979,127 +979,127 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1430,7 +1430,7 @@
   <sheetPr/>
   <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B11" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B39" workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
